--- a/artfynd/Bastuberget artfynd.xlsx
+++ b/artfynd/Bastuberget artfynd.xlsx
@@ -1779,10 +1779,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56622638</v>
+        <v>119663603</v>
       </c>
       <c r="B13" t="n">
-        <v>80083</v>
+        <v>92529</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1790,37 +1790,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bastuberget, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>683106</v>
+        <v>682656</v>
       </c>
       <c r="R13" t="n">
-        <v>7088297</v>
+        <v>7088961</v>
       </c>
       <c r="S13" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2014-08-28</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2014-08-28</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1860,31 +1860,26 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>119663603</v>
+        <v>119663490</v>
       </c>
       <c r="B14" t="n">
-        <v>92529</v>
+        <v>91245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1892,21 +1887,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1916,10 +1911,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682656</v>
+        <v>683531</v>
       </c>
       <c r="R14" t="n">
-        <v>7088961</v>
+        <v>7088148</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1946,12 +1941,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -1978,10 +1973,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>119663490</v>
+        <v>119663614</v>
       </c>
       <c r="B15" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1989,21 +1984,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2013,10 +2008,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683531</v>
+        <v>683120</v>
       </c>
       <c r="R15" t="n">
-        <v>7088148</v>
+        <v>7088528</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2075,32 +2070,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>119663614</v>
+        <v>119663609</v>
       </c>
       <c r="B16" t="n">
-        <v>78980</v>
+        <v>91210</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2110,10 +2105,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>683120</v>
+        <v>682685</v>
       </c>
       <c r="R16" t="n">
-        <v>7088528</v>
+        <v>7088993</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2140,12 +2135,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2172,48 +2167,48 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>119663609</v>
+        <v>56622638</v>
       </c>
       <c r="B17" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Bastuberget, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682685</v>
+        <v>683106</v>
       </c>
       <c r="R17" t="n">
-        <v>7088993</v>
+        <v>7088297</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2237,12 +2232,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2014-08-28</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2014-08-28</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2253,16 +2248,21 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -5292,32 +5292,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>119663616</v>
+        <v>119663604</v>
       </c>
       <c r="B49" t="n">
-        <v>80112</v>
+        <v>92527</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6462</v>
+        <v>4361</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5327,10 +5327,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>683021</v>
+        <v>682654</v>
       </c>
       <c r="R49" t="n">
-        <v>7088652</v>
+        <v>7088972</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5357,12 +5357,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5389,32 +5389,32 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>119663604</v>
+        <v>119663616</v>
       </c>
       <c r="B50" t="n">
-        <v>92527</v>
+        <v>80112</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4361</v>
+        <v>6462</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5424,10 +5424,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>682654</v>
+        <v>683021</v>
       </c>
       <c r="R50" t="n">
-        <v>7088972</v>
+        <v>7088652</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5454,12 +5454,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5777,10 +5777,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>119663487</v>
+        <v>119663502</v>
       </c>
       <c r="B54" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5788,21 +5788,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -5812,10 +5812,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>683510</v>
+        <v>683107</v>
       </c>
       <c r="R54" t="n">
-        <v>7088124</v>
+        <v>7087724</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5842,12 +5842,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -5874,32 +5874,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>119663594</v>
+        <v>119663487</v>
       </c>
       <c r="B55" t="n">
-        <v>91210</v>
+        <v>78980</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -5909,10 +5909,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>682911</v>
+        <v>683510</v>
       </c>
       <c r="R55" t="n">
-        <v>7088403</v>
+        <v>7088124</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -5939,12 +5939,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -5971,32 +5971,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>119663597</v>
+        <v>119663594</v>
       </c>
       <c r="B56" t="n">
-        <v>78980</v>
+        <v>91210</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>682843</v>
+        <v>682911</v>
       </c>
       <c r="R56" t="n">
-        <v>7088496</v>
+        <v>7088403</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>119663502</v>
+        <v>119663597</v>
       </c>
       <c r="B57" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6079,21 +6079,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>683107</v>
+        <v>682843</v>
       </c>
       <c r="R57" t="n">
-        <v>7087724</v>
+        <v>7088496</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6747,32 +6747,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>119663488</v>
+        <v>119663396</v>
       </c>
       <c r="B64" t="n">
-        <v>91263</v>
+        <v>98278</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>219790</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -6782,10 +6782,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>683532</v>
+        <v>683181</v>
       </c>
       <c r="R64" t="n">
-        <v>7088084</v>
+        <v>7087674</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6812,12 +6812,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -6844,32 +6844,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>119663396</v>
+        <v>119663488</v>
       </c>
       <c r="B65" t="n">
-        <v>98278</v>
+        <v>91263</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>219790</v>
+        <v>5432</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -6879,10 +6879,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>683181</v>
+        <v>683532</v>
       </c>
       <c r="R65" t="n">
-        <v>7087674</v>
+        <v>7088084</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -6909,12 +6909,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7441,32 +7441,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>119663494</v>
+        <v>119663613</v>
       </c>
       <c r="B71" t="n">
-        <v>79987</v>
+        <v>91263</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7476,10 +7476,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>683661</v>
+        <v>683344</v>
       </c>
       <c r="R71" t="n">
-        <v>7088104</v>
+        <v>7088284</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7538,32 +7538,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>119663593</v>
+        <v>119663494</v>
       </c>
       <c r="B72" t="n">
-        <v>98361</v>
+        <v>79987</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7573,10 +7573,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>683138</v>
+        <v>683661</v>
       </c>
       <c r="R72" t="n">
-        <v>7088128</v>
+        <v>7088104</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -7635,32 +7635,32 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>119663613</v>
+        <v>119663501</v>
       </c>
       <c r="B73" t="n">
-        <v>91263</v>
+        <v>91210</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7670,10 +7670,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>683344</v>
+        <v>682656</v>
       </c>
       <c r="R73" t="n">
-        <v>7088284</v>
+        <v>7088091</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7732,32 +7732,32 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>119663501</v>
+        <v>119663593</v>
       </c>
       <c r="B74" t="n">
-        <v>91210</v>
+        <v>98361</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -7767,10 +7767,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>682656</v>
+        <v>683138</v>
       </c>
       <c r="R74" t="n">
-        <v>7088091</v>
+        <v>7088128</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -7797,12 +7797,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD74" t="b">

--- a/artfynd/Bastuberget artfynd.xlsx
+++ b/artfynd/Bastuberget artfynd.xlsx
@@ -1779,10 +1779,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>119663603</v>
+        <v>56622638</v>
       </c>
       <c r="B13" t="n">
-        <v>92529</v>
+        <v>80083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1790,37 +1790,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Bastuberget, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682656</v>
+        <v>683106</v>
       </c>
       <c r="R13" t="n">
-        <v>7088961</v>
+        <v>7088297</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2014-08-28</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2014-08-28</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1860,26 +1860,31 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>119663490</v>
+        <v>119663603</v>
       </c>
       <c r="B14" t="n">
-        <v>91245</v>
+        <v>92529</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1887,21 +1892,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1911,10 +1916,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>683531</v>
+        <v>682656</v>
       </c>
       <c r="R14" t="n">
-        <v>7088148</v>
+        <v>7088961</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1941,12 +1946,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -1973,10 +1978,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>119663614</v>
+        <v>119663490</v>
       </c>
       <c r="B15" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1984,21 +1989,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2008,10 +2013,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683120</v>
+        <v>683531</v>
       </c>
       <c r="R15" t="n">
-        <v>7088528</v>
+        <v>7088148</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2167,10 +2172,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>56622638</v>
+        <v>119663614</v>
       </c>
       <c r="B17" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,37 +2183,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bastuberget, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683106</v>
+        <v>683120</v>
       </c>
       <c r="R17" t="n">
-        <v>7088297</v>
+        <v>7088528</v>
       </c>
       <c r="S17" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2232,12 +2237,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2014-08-28</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2014-08-28</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2248,53 +2253,48 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>119663484</v>
+        <v>119665743</v>
       </c>
       <c r="B18" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>683361</v>
+        <v>682953</v>
       </c>
       <c r="R18" t="n">
-        <v>7088466</v>
+        <v>7088445</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2334,12 +2334,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2366,32 +2366,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>119665743</v>
+        <v>119663484</v>
       </c>
       <c r="B19" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>682953</v>
+        <v>683361</v>
       </c>
       <c r="R19" t="n">
-        <v>7088445</v>
+        <v>7088466</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2431,12 +2431,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2463,32 +2463,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>119663397</v>
+        <v>119663489</v>
       </c>
       <c r="B20" t="n">
-        <v>78980</v>
+        <v>91210</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2498,10 +2498,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>683215</v>
+        <v>683531</v>
       </c>
       <c r="R20" t="n">
-        <v>7087675</v>
+        <v>7088148</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2528,12 +2528,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2560,32 +2560,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>119663489</v>
+        <v>119663397</v>
       </c>
       <c r="B21" t="n">
-        <v>91210</v>
+        <v>78980</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>683531</v>
+        <v>683215</v>
       </c>
       <c r="R21" t="n">
-        <v>7088148</v>
+        <v>7087675</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2657,10 +2657,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>119663491</v>
+        <v>119663611</v>
       </c>
       <c r="B22" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2668,21 +2668,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>683583</v>
+        <v>682769</v>
       </c>
       <c r="R22" t="n">
-        <v>7088068</v>
+        <v>7088948</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2722,12 +2722,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2754,10 +2754,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>119663611</v>
+        <v>119663497</v>
       </c>
       <c r="B23" t="n">
-        <v>78980</v>
+        <v>57817</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,21 +2765,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>682769</v>
+        <v>683638</v>
       </c>
       <c r="R23" t="n">
-        <v>7088948</v>
+        <v>7088158</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2819,12 +2819,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2851,10 +2851,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>119663497</v>
+        <v>119663491</v>
       </c>
       <c r="B24" t="n">
-        <v>57817</v>
+        <v>91263</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2862,21 +2862,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>683638</v>
+        <v>683583</v>
       </c>
       <c r="R24" t="n">
-        <v>7088158</v>
+        <v>7088068</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56622625</v>
+        <v>56622665</v>
       </c>
       <c r="B27" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3153,21 +3153,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>683327</v>
+        <v>682978</v>
       </c>
       <c r="R27" t="n">
-        <v>7088067</v>
+        <v>7088088</v>
       </c>
       <c r="S27" t="n">
         <v>250</v>
@@ -3223,6 +3223,11 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3239,10 +3244,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56622665</v>
+        <v>56622625</v>
       </c>
       <c r="B28" t="n">
-        <v>79012</v>
+        <v>78980</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3250,21 +3255,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3274,10 +3279,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>682978</v>
+        <v>683327</v>
       </c>
       <c r="R28" t="n">
-        <v>7088088</v>
+        <v>7088067</v>
       </c>
       <c r="S28" t="n">
         <v>250</v>
@@ -3320,11 +3325,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3438,27 +3438,27 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>119663398</v>
+        <v>119663500</v>
       </c>
       <c r="B30" t="n">
-        <v>80118</v>
+        <v>78980</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>683201</v>
+        <v>683638</v>
       </c>
       <c r="R30" t="n">
-        <v>7087667</v>
+        <v>7088158</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3503,12 +3503,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3535,27 +3535,27 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>119663500</v>
+        <v>119663398</v>
       </c>
       <c r="B31" t="n">
-        <v>78980</v>
+        <v>80118</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3570,10 +3570,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>683638</v>
+        <v>683201</v>
       </c>
       <c r="R31" t="n">
-        <v>7088158</v>
+        <v>7087667</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3600,12 +3600,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3826,32 +3826,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>119663598</v>
+        <v>119663590</v>
       </c>
       <c r="B34" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3861,10 +3861,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682758</v>
+        <v>682919</v>
       </c>
       <c r="R34" t="n">
-        <v>7088582</v>
+        <v>7088574</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -3923,32 +3923,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>119663590</v>
+        <v>119663598</v>
       </c>
       <c r="B35" t="n">
-        <v>78980</v>
+        <v>92535</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682919</v>
+        <v>682758</v>
       </c>
       <c r="R35" t="n">
-        <v>7088574</v>
+        <v>7088582</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -3988,12 +3988,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4613,32 +4613,32 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>119663496</v>
+        <v>119665744</v>
       </c>
       <c r="B42" t="n">
-        <v>98265</v>
+        <v>91263</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220093</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4648,10 +4648,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>683640</v>
+        <v>682838</v>
       </c>
       <c r="R42" t="n">
-        <v>7088118</v>
+        <v>7088521</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4678,12 +4678,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4710,32 +4710,32 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>119665744</v>
+        <v>119663485</v>
       </c>
       <c r="B43" t="n">
-        <v>91263</v>
+        <v>79987</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5432</v>
+        <v>6456</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4745,10 +4745,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>682838</v>
+        <v>683361</v>
       </c>
       <c r="R43" t="n">
-        <v>7088521</v>
+        <v>7088466</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4807,10 +4807,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>119663485</v>
+        <v>119663496</v>
       </c>
       <c r="B44" t="n">
-        <v>79987</v>
+        <v>98265</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4818,21 +4818,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6456</v>
+        <v>220093</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4842,10 +4842,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>683361</v>
+        <v>683640</v>
       </c>
       <c r="R44" t="n">
-        <v>7088466</v>
+        <v>7088118</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5098,32 +5098,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>119663486</v>
+        <v>119663617</v>
       </c>
       <c r="B47" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5133,10 +5133,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>683361</v>
+        <v>683033</v>
       </c>
       <c r="R47" t="n">
-        <v>7088466</v>
+        <v>7088610</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5195,32 +5195,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>119663617</v>
+        <v>119663486</v>
       </c>
       <c r="B48" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>683033</v>
+        <v>683361</v>
       </c>
       <c r="R48" t="n">
-        <v>7088610</v>
+        <v>7088466</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5680,10 +5680,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>119663605</v>
+        <v>119663487</v>
       </c>
       <c r="B53" t="n">
-        <v>78739</v>
+        <v>78980</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5691,21 +5691,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>682702</v>
+        <v>683510</v>
       </c>
       <c r="R53" t="n">
-        <v>7088927</v>
+        <v>7088124</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5745,12 +5745,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5777,10 +5777,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>119663502</v>
+        <v>119663597</v>
       </c>
       <c r="B54" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5788,21 +5788,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -5812,10 +5812,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>683107</v>
+        <v>682843</v>
       </c>
       <c r="R54" t="n">
-        <v>7087724</v>
+        <v>7088496</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5842,12 +5842,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -5874,32 +5874,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>119663487</v>
+        <v>119663592</v>
       </c>
       <c r="B55" t="n">
-        <v>78980</v>
+        <v>56852</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>102613</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -5909,10 +5909,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>683510</v>
+        <v>683395</v>
       </c>
       <c r="R55" t="n">
-        <v>7088124</v>
+        <v>7087897</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -5939,12 +5939,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -5971,32 +5971,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>119663594</v>
+        <v>119663605</v>
       </c>
       <c r="B56" t="n">
-        <v>91210</v>
+        <v>78739</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5447</v>
+        <v>228912</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>682911</v>
+        <v>682702</v>
       </c>
       <c r="R56" t="n">
-        <v>7088403</v>
+        <v>7088927</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>119663597</v>
+        <v>119663502</v>
       </c>
       <c r="B57" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6079,21 +6079,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>682843</v>
+        <v>683107</v>
       </c>
       <c r="R57" t="n">
-        <v>7088496</v>
+        <v>7087724</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6165,10 +6165,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>119663592</v>
+        <v>119663594</v>
       </c>
       <c r="B58" t="n">
-        <v>56852</v>
+        <v>91210</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6176,21 +6176,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>102613</v>
+        <v>5447</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>683395</v>
+        <v>682911</v>
       </c>
       <c r="R58" t="n">
-        <v>7087897</v>
+        <v>7088403</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6747,32 +6747,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>119663396</v>
+        <v>119663488</v>
       </c>
       <c r="B64" t="n">
-        <v>98278</v>
+        <v>91263</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>219790</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -6782,10 +6782,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>683181</v>
+        <v>683532</v>
       </c>
       <c r="R64" t="n">
-        <v>7087674</v>
+        <v>7088084</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6812,12 +6812,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -6844,32 +6844,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>119663488</v>
+        <v>119663396</v>
       </c>
       <c r="B65" t="n">
-        <v>91263</v>
+        <v>98278</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>219790</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -6879,10 +6879,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>683532</v>
+        <v>683181</v>
       </c>
       <c r="R65" t="n">
-        <v>7088084</v>
+        <v>7087674</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -6909,12 +6909,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7441,32 +7441,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>119663613</v>
+        <v>119663593</v>
       </c>
       <c r="B71" t="n">
-        <v>91263</v>
+        <v>98361</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5432</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7476,10 +7476,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>683344</v>
+        <v>683138</v>
       </c>
       <c r="R71" t="n">
-        <v>7088284</v>
+        <v>7088128</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7506,12 +7506,12 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -7538,32 +7538,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>119663494</v>
+        <v>119663613</v>
       </c>
       <c r="B72" t="n">
-        <v>79987</v>
+        <v>91263</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7573,10 +7573,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>683661</v>
+        <v>683344</v>
       </c>
       <c r="R72" t="n">
-        <v>7088104</v>
+        <v>7088284</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7732,32 +7732,32 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>119663593</v>
+        <v>119663494</v>
       </c>
       <c r="B74" t="n">
-        <v>98361</v>
+        <v>79987</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -7767,10 +7767,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>683138</v>
+        <v>683661</v>
       </c>
       <c r="R74" t="n">
-        <v>7088128</v>
+        <v>7088104</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -7797,12 +7797,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD74" t="b">

--- a/artfynd/Bastuberget artfynd.xlsx
+++ b/artfynd/Bastuberget artfynd.xlsx
@@ -976,10 +976,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56622631</v>
+        <v>119663618</v>
       </c>
       <c r="B5" t="n">
-        <v>57761</v>
+        <v>91210</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,37 +987,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103031</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bastuberget, Ång</t>
+          <t>Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>683106</v>
+        <v>683216</v>
       </c>
       <c r="R5" t="n">
-        <v>7088297</v>
+        <v>7088583</v>
       </c>
       <c r="S5" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2014-08-28</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2014-08-28</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1061,22 +1061,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Torbjörn Josefsson</t>
+          <t>Hanna Bäckman</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>119663495</v>
+        <v>119663492</v>
       </c>
       <c r="B6" t="n">
-        <v>80118</v>
+        <v>91210</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,21 +1084,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1108,10 +1108,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>683661</v>
+        <v>683559</v>
       </c>
       <c r="R6" t="n">
-        <v>7088104</v>
+        <v>7088050</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1170,32 +1170,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>119663399</v>
+        <v>119663495</v>
       </c>
       <c r="B7" t="n">
-        <v>80083</v>
+        <v>80118</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>683201</v>
+        <v>683661</v>
       </c>
       <c r="R7" t="n">
-        <v>7087667</v>
+        <v>7088104</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1235,12 +1235,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1267,10 +1267,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>119663492</v>
+        <v>56622631</v>
       </c>
       <c r="B8" t="n">
-        <v>91210</v>
+        <v>57761</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,37 +1278,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>103031</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bjurholm, Ång</t>
+          <t>Bastuberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>683559</v>
+        <v>683106</v>
       </c>
       <c r="R8" t="n">
-        <v>7088050</v>
+        <v>7088297</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1332,12 +1332,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2014-08-28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2014-08-28</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1352,44 +1352,44 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Hanna Bäckman</t>
+          <t>Torbjörn Josefsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>119663618</v>
+        <v>119663399</v>
       </c>
       <c r="B9" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>683216</v>
+        <v>683201</v>
       </c>
       <c r="R9" t="n">
-        <v>7088583</v>
+        <v>7087667</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1429,12 +1429,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1881,10 +1881,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>119663603</v>
+        <v>119663490</v>
       </c>
       <c r="B14" t="n">
-        <v>92529</v>
+        <v>91245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1892,21 +1892,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682656</v>
+        <v>683531</v>
       </c>
       <c r="R14" t="n">
-        <v>7088961</v>
+        <v>7088148</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -1978,10 +1978,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>119663490</v>
+        <v>119663614</v>
       </c>
       <c r="B15" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1989,21 +1989,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683531</v>
+        <v>683120</v>
       </c>
       <c r="R15" t="n">
-        <v>7088148</v>
+        <v>7088528</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2172,10 +2172,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>119663614</v>
+        <v>119663603</v>
       </c>
       <c r="B17" t="n">
-        <v>78980</v>
+        <v>92529</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2183,21 +2183,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2207,10 +2207,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683120</v>
+        <v>682656</v>
       </c>
       <c r="R17" t="n">
-        <v>7088528</v>
+        <v>7088961</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2237,12 +2237,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2754,10 +2754,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>119663497</v>
+        <v>119663491</v>
       </c>
       <c r="B23" t="n">
-        <v>57817</v>
+        <v>91263</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2765,21 +2765,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>683638</v>
+        <v>683583</v>
       </c>
       <c r="R23" t="n">
-        <v>7088158</v>
+        <v>7088068</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>119663491</v>
+        <v>119663497</v>
       </c>
       <c r="B24" t="n">
-        <v>91263</v>
+        <v>57817</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2862,21 +2862,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>683583</v>
+        <v>683638</v>
       </c>
       <c r="R24" t="n">
-        <v>7088068</v>
+        <v>7088158</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56622665</v>
+        <v>56622625</v>
       </c>
       <c r="B27" t="n">
-        <v>79012</v>
+        <v>78980</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3153,21 +3153,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>682978</v>
+        <v>683327</v>
       </c>
       <c r="R27" t="n">
-        <v>7088088</v>
+        <v>7088067</v>
       </c>
       <c r="S27" t="n">
         <v>250</v>
@@ -3223,11 +3223,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3244,10 +3239,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56622625</v>
+        <v>56622665</v>
       </c>
       <c r="B28" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3255,21 +3250,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3279,10 +3274,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>683327</v>
+        <v>682978</v>
       </c>
       <c r="R28" t="n">
-        <v>7088067</v>
+        <v>7088088</v>
       </c>
       <c r="S28" t="n">
         <v>250</v>
@@ -3325,6 +3320,11 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3341,32 +3341,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>119663395</v>
+        <v>119663500</v>
       </c>
       <c r="B29" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3376,10 +3376,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>683164</v>
+        <v>683638</v>
       </c>
       <c r="R29" t="n">
-        <v>7087680</v>
+        <v>7088158</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3438,32 +3438,32 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>119663500</v>
+        <v>119663395</v>
       </c>
       <c r="B30" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>683638</v>
+        <v>683164</v>
       </c>
       <c r="R30" t="n">
-        <v>7088158</v>
+        <v>7087680</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3503,12 +3503,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3729,32 +3729,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>119663615</v>
+        <v>119663598</v>
       </c>
       <c r="B33" t="n">
-        <v>91245</v>
+        <v>92535</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>682999</v>
+        <v>682758</v>
       </c>
       <c r="R33" t="n">
-        <v>7088669</v>
+        <v>7088582</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3794,12 +3794,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3826,10 +3826,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>119663590</v>
+        <v>119663615</v>
       </c>
       <c r="B34" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3837,21 +3837,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3861,10 +3861,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682919</v>
+        <v>682999</v>
       </c>
       <c r="R34" t="n">
-        <v>7088574</v>
+        <v>7088669</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -3923,32 +3923,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>119663598</v>
+        <v>119663590</v>
       </c>
       <c r="B35" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682758</v>
+        <v>682919</v>
       </c>
       <c r="R35" t="n">
-        <v>7088582</v>
+        <v>7088574</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -3988,12 +3988,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4122,7 +4122,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>119663612</v>
+        <v>119663596</v>
       </c>
       <c r="B37" t="n">
         <v>91245</v>
@@ -4157,10 +4157,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>683357</v>
+        <v>682849</v>
       </c>
       <c r="R37" t="n">
-        <v>7088112</v>
+        <v>7088483</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4187,12 +4187,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4316,7 +4316,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>119663596</v>
+        <v>119663612</v>
       </c>
       <c r="B39" t="n">
         <v>91245</v>
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682849</v>
+        <v>683357</v>
       </c>
       <c r="R39" t="n">
-        <v>7088483</v>
+        <v>7088112</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4710,10 +4710,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>119663485</v>
+        <v>119663496</v>
       </c>
       <c r="B43" t="n">
-        <v>79987</v>
+        <v>98265</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4721,21 +4721,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6456</v>
+        <v>220093</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4745,10 +4745,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>683361</v>
+        <v>683640</v>
       </c>
       <c r="R43" t="n">
-        <v>7088466</v>
+        <v>7088118</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>119663496</v>
+        <v>119663485</v>
       </c>
       <c r="B44" t="n">
-        <v>98265</v>
+        <v>79987</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4818,21 +4818,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220093</v>
+        <v>6456</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4842,10 +4842,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>683640</v>
+        <v>683361</v>
       </c>
       <c r="R44" t="n">
-        <v>7088118</v>
+        <v>7088466</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>119663595</v>
+        <v>119663486</v>
       </c>
       <c r="B46" t="n">
         <v>80112</v>
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>682866</v>
+        <v>683361</v>
       </c>
       <c r="R46" t="n">
-        <v>7088413</v>
+        <v>7088466</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5066,12 +5066,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5098,32 +5098,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>119663617</v>
+        <v>119663595</v>
       </c>
       <c r="B47" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5133,10 +5133,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>683033</v>
+        <v>682866</v>
       </c>
       <c r="R47" t="n">
-        <v>7088610</v>
+        <v>7088413</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5163,12 +5163,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5195,32 +5195,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>119663486</v>
+        <v>119663617</v>
       </c>
       <c r="B48" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>683361</v>
+        <v>683033</v>
       </c>
       <c r="R48" t="n">
-        <v>7088466</v>
+        <v>7088610</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5292,32 +5292,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>119663604</v>
+        <v>119663616</v>
       </c>
       <c r="B49" t="n">
-        <v>92527</v>
+        <v>80112</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>6462</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5327,10 +5327,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>682654</v>
+        <v>683021</v>
       </c>
       <c r="R49" t="n">
-        <v>7088972</v>
+        <v>7088652</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5357,12 +5357,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5389,32 +5389,32 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>119663616</v>
+        <v>119663604</v>
       </c>
       <c r="B50" t="n">
-        <v>80112</v>
+        <v>92527</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6462</v>
+        <v>4361</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5424,10 +5424,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>683021</v>
+        <v>682654</v>
       </c>
       <c r="R50" t="n">
-        <v>7088652</v>
+        <v>7088972</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5454,12 +5454,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5486,10 +5486,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>119665740</v>
+        <v>119663610</v>
       </c>
       <c r="B51" t="n">
-        <v>80112</v>
+        <v>56852</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5497,21 +5497,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6462</v>
+        <v>102613</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5521,10 +5521,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>682951</v>
+        <v>682754</v>
       </c>
       <c r="R51" t="n">
-        <v>7088538</v>
+        <v>7088971</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5551,12 +5551,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5583,10 +5583,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>119663610</v>
+        <v>119665740</v>
       </c>
       <c r="B52" t="n">
-        <v>56852</v>
+        <v>80112</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5594,21 +5594,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>102613</v>
+        <v>6462</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5618,10 +5618,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>682754</v>
+        <v>682951</v>
       </c>
       <c r="R52" t="n">
-        <v>7088971</v>
+        <v>7088538</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5680,7 +5680,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>119663487</v>
+        <v>119663597</v>
       </c>
       <c r="B53" t="n">
         <v>78980</v>
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>683510</v>
+        <v>682843</v>
       </c>
       <c r="R53" t="n">
-        <v>7088124</v>
+        <v>7088496</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5745,12 +5745,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5777,7 +5777,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>119663597</v>
+        <v>119663487</v>
       </c>
       <c r="B54" t="n">
         <v>78980</v>
@@ -5812,10 +5812,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>682843</v>
+        <v>683510</v>
       </c>
       <c r="R54" t="n">
-        <v>7088496</v>
+        <v>7088124</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5842,12 +5842,12 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -5874,32 +5874,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>119663592</v>
+        <v>119663502</v>
       </c>
       <c r="B55" t="n">
-        <v>56852</v>
+        <v>91263</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>102613</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Orre</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lyrurus tetrix</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -5909,10 +5909,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>683395</v>
+        <v>683107</v>
       </c>
       <c r="R55" t="n">
-        <v>7087897</v>
+        <v>7087724</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -5939,12 +5939,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -5971,32 +5971,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>119663605</v>
+        <v>119663594</v>
       </c>
       <c r="B56" t="n">
-        <v>78739</v>
+        <v>91210</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>228912</v>
+        <v>5447</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>682702</v>
+        <v>682911</v>
       </c>
       <c r="R56" t="n">
-        <v>7088927</v>
+        <v>7088403</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6068,10 +6068,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>119663502</v>
+        <v>119663605</v>
       </c>
       <c r="B57" t="n">
-        <v>91263</v>
+        <v>78739</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6079,21 +6079,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>228912</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>683107</v>
+        <v>682702</v>
       </c>
       <c r="R57" t="n">
-        <v>7087724</v>
+        <v>7088927</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6133,12 +6133,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6165,10 +6165,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>119663594</v>
+        <v>119663592</v>
       </c>
       <c r="B58" t="n">
-        <v>91210</v>
+        <v>56852</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6176,21 +6176,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5447</v>
+        <v>102613</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Orre</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lyrurus tetrix</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>682911</v>
+        <v>683395</v>
       </c>
       <c r="R58" t="n">
-        <v>7088403</v>
+        <v>7087897</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6747,32 +6747,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>119663488</v>
+        <v>119663396</v>
       </c>
       <c r="B64" t="n">
-        <v>91263</v>
+        <v>98278</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>219790</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -6782,10 +6782,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>683532</v>
+        <v>683181</v>
       </c>
       <c r="R64" t="n">
-        <v>7088084</v>
+        <v>7087674</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6812,12 +6812,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -6844,32 +6844,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>119663396</v>
+        <v>119663488</v>
       </c>
       <c r="B65" t="n">
-        <v>98278</v>
+        <v>91263</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>219790</v>
+        <v>5432</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -6879,10 +6879,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>683181</v>
+        <v>683532</v>
       </c>
       <c r="R65" t="n">
-        <v>7087674</v>
+        <v>7088084</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -6909,12 +6909,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7441,32 +7441,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>119663593</v>
+        <v>119663501</v>
       </c>
       <c r="B71" t="n">
-        <v>98361</v>
+        <v>91210</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7476,10 +7476,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>683138</v>
+        <v>682656</v>
       </c>
       <c r="R71" t="n">
-        <v>7088128</v>
+        <v>7088091</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7506,12 +7506,12 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -7635,10 +7635,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>119663501</v>
+        <v>119663494</v>
       </c>
       <c r="B73" t="n">
-        <v>91210</v>
+        <v>79987</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7646,21 +7646,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5447</v>
+        <v>6456</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7670,10 +7670,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>682656</v>
+        <v>683661</v>
       </c>
       <c r="R73" t="n">
-        <v>7088091</v>
+        <v>7088104</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7732,32 +7732,32 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>119663494</v>
+        <v>119663593</v>
       </c>
       <c r="B74" t="n">
-        <v>79987</v>
+        <v>98361</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -7767,10 +7767,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>683661</v>
+        <v>683138</v>
       </c>
       <c r="R74" t="n">
-        <v>7088104</v>
+        <v>7088128</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -7797,12 +7797,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="AD74" t="b">
